--- a/ty.xlsx
+++ b/ty.xlsx
@@ -49,7 +49,7 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_1.TestCase_1</x:t>
+    <x:t>TC_MC_CreatemarketingData_01</x:t>
   </x:si>
   <x:si>
     <x:t>Create Marketing data_02</x:t>
@@ -169,7 +169,7 @@
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
+    <x:t>TC_MC_EditRecommendScennario_03</x:t>
   </x:si>
   <x:si>
     <x:t>Select an already created scenarion and edit it with new values</x:t>
@@ -205,7 +205,7 @@
     <x:t>TestScenario_3</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
+    <x:t>TC_MC_CreateNewContact_01</x:t>
   </x:si>
   <x:si>
     <x:t>Select contact module and create a new contact</x:t>
@@ -238,7 +238,7 @@
     <x:t>TestScenario_4</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
+    <x:t>TC_MC_JulyMarketingCalender_05</x:t>
   </x:si>
   <x:si>
     <x:t>Click and see the first event of of July Month canlender</x:t>
@@ -280,7 +280,7 @@
     <x:t>TestScenario_5</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_5.TestCase_1</x:t>
+    <x:t>TC_MC_ChangeStatus_Content_06</x:t>
   </x:si>
   <x:si>
     <x:t>Change the status of the content by selecting conent</x:t>
@@ -319,7 +319,7 @@
     <x:t>TestScenario_6</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_6.TestCase_1</x:t>
+    <x:t>TC_MC_StartCampaing-07</x:t>
   </x:si>
   <x:si>
     <x:t>Start the campaign and it should show error message</x:t>
@@ -364,7 +364,7 @@
     <x:t>TestScenario_7</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_7.TestCase_1</x:t>
+    <x:t>TC_MC_ViewExecutionLog-08</x:t>
   </x:si>
   <x:si>
     <x:t>View Execution Log in Monitor Campaign management</x:t>
@@ -788,7 +788,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="36.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="58.410625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>

--- a/ty.xlsx
+++ b/ty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -49,10 +49,10 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
-    <x:t>TC_MC_CreatemarketingData_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Create Marketing data_02</x:t>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select an already created scenarion and edit it with new values</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -61,7 +61,7 @@
     <x:t>Url</x:t>
   </x:si>
   <x:si>
-    <x:t>url should be launched</x:t>
+    <x:t>Url should be launched</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -94,277 +94,211 @@
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on Marketing location</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to Marketing locations page</x:t>
+    <x:t>Click On Edit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should see the data to be verified</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on Create</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to new marketing location page</x:t>
+    <x:t>Select Model type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user should see the list of Models</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Location Na,e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Location name should be entered</x:t>
+    <x:t>Select communication medium</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Use should see the list of communication medium</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>Select marketing are</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should get drop down list</x:t>
+    <x:t>Select user Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should see the list of user type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select contact module and create a new contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Contacts and Profile Module</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to respective module page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ClickOnContacts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to list of contact page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select marketing area</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should see the drop down list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on create</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A new contact should be created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click and see the first event of of July Month canlender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on Campaign and management</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to campaign and management page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Marketing calender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to markeing calender page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on list box to select Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select  Month Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Calender events of Months should be selected</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter location type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Location type should be entered</x:t>
+    <x:t>Click on July Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>List of july month events should be displayed</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter the URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL should be entered</x:t>
+    <x:t>Click on monthly coffee part</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should see the details displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Change the status of the content by selecting conent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on content studio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to content page of studio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on All content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to list of content page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select any one of the content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Content should be checked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on change status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drop down should appear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select statuc to be set</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status of the content should change</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Start the campaign and it should show error message</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on campaign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should go the campign page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select any one of the campaign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Campaign details should be shown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on start bbutton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pop up should appear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click yes on popup</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">It should show error message </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Verify error message</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error messge should be verified</x:t>
   </x:si>
   <x:si>
     <x:t>11</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter image URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image URL should be entered</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click on Save</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Details should be saved</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TC_MC_EditRecommendScennario_03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select an already created scenarion and edit it with new values</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Url should be launched</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click On Edit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should see the data to be verified</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select Model type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user should see the list of Models</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select communication medium</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Use should see the list of communication medium</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select user Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should see the list of user type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TC_MC_CreateNewContact_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select contact module and create a new contact</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Contacts and Profile Module</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to respective module page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ClickOnContacts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to list of contact page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select marketing area</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should see the drop down list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on create</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A new contact should be created</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TC_MC_JulyMarketingCalender_05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click and see the first event of of July Month canlender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click on Campaign and management</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to campaign and management page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Marketing calender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to markeing calender page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click on list box to select Month</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select  Month Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Calender events of Months should be selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on July Month</x:t>
-  </x:si>
-  <x:si>
-    <x:t>List of july month events should be displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on monthly coffee part</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should see the details displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TC_MC_ChangeStatus_Content_06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Change the status of the content by selecting conent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on content studio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to content page of studio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on All content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to list of content page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select any one of the content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Content should be checked</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on change status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drop down should appear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select statuc to be set</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Status of the content should change</x:t>
+    <x:t>click on close</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pop up should be closed</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_6</x:t>
   </x:si>
   <x:si>
-    <x:t>TC_MC_StartCampaing-07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Start the campaign and it should show error message</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should go the campign page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select any one of the campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Campaign details should be shown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click on start bbutton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pop up should appear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click yes on popup</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">It should show error message </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify error message</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error messge should be verified</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click on close</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pop up should be closed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TC_MC_ViewExecutionLog-08</x:t>
+    <x:t>TestScenario_6.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>View Execution Log in Monitor Campaign management</x:t>
@@ -475,8 +409,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J70" totalsRowShown="0">
-  <x:autoFilter ref="A1:J70"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J57" totalsRowShown="0">
+  <x:autoFilter ref="A1:J57"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -781,14 +715,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J70"/>
+  <x:dimension ref="A1:J57"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="36.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="58.410625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
@@ -982,19 +916,25 @@
       <x:c r="J9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s"/>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="s"/>
+      <x:c r="A10" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -1006,13 +946,13 @@
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -1024,13 +964,13 @@
       <x:c r="D12" s="0" t="s"/>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -1042,13 +982,13 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -1060,37 +1000,31 @@
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
     </x:row>
     <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -1102,13 +1036,13 @@
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1120,31 +1054,37 @@
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
+      <x:c r="A18" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1156,13 +1096,13 @@
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1174,13 +1114,13 @@
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="0" t="s"/>
       <x:c r="F20" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
@@ -1192,13 +1132,13 @@
       <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
@@ -1210,37 +1150,31 @@
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
       <x:c r="D23" s="0" t="s"/>
       <x:c r="E23" s="0" t="s"/>
       <x:c r="F23" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
@@ -1252,13 +1186,13 @@
       <x:c r="D24" s="0" t="s"/>
       <x:c r="E24" s="0" t="s"/>
       <x:c r="F24" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
@@ -1270,13 +1204,13 @@
       <x:c r="D25" s="0" t="s"/>
       <x:c r="E25" s="0" t="s"/>
       <x:c r="F25" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
@@ -1288,13 +1222,13 @@
       <x:c r="D26" s="0" t="s"/>
       <x:c r="E26" s="0" t="s"/>
       <x:c r="F26" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
@@ -1306,31 +1240,37 @@
       <x:c r="D27" s="0" t="s"/>
       <x:c r="E27" s="0" t="s"/>
       <x:c r="F27" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s"/>
       <x:c r="J27" s="0" t="s"/>
     </x:row>
     <x:row r="28" spans="1:10">
-      <x:c r="A28" s="0" t="s"/>
-      <x:c r="B28" s="0" t="s"/>
-      <x:c r="C28" s="0" t="s"/>
+      <x:c r="A28" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
       <x:c r="D28" s="0" t="s"/>
       <x:c r="E28" s="0" t="s"/>
       <x:c r="F28" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
@@ -1342,13 +1282,13 @@
       <x:c r="D29" s="0" t="s"/>
       <x:c r="E29" s="0" t="s"/>
       <x:c r="F29" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
@@ -1360,37 +1300,31 @@
       <x:c r="D30" s="0" t="s"/>
       <x:c r="E30" s="0" t="s"/>
       <x:c r="F30" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s"/>
       <x:c r="J30" s="0" t="s"/>
     </x:row>
     <x:row r="31" spans="1:10">
-      <x:c r="A31" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C31" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
+      <x:c r="A31" s="0" t="s"/>
+      <x:c r="B31" s="0" t="s"/>
+      <x:c r="C31" s="0" t="s"/>
       <x:c r="D31" s="0" t="s"/>
       <x:c r="E31" s="0" t="s"/>
       <x:c r="F31" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s"/>
       <x:c r="J31" s="0" t="s"/>
@@ -1402,13 +1336,13 @@
       <x:c r="D32" s="0" t="s"/>
       <x:c r="E32" s="0" t="s"/>
       <x:c r="F32" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
@@ -1420,13 +1354,13 @@
       <x:c r="D33" s="0" t="s"/>
       <x:c r="E33" s="0" t="s"/>
       <x:c r="F33" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
@@ -1438,13 +1372,13 @@
       <x:c r="D34" s="0" t="s"/>
       <x:c r="E34" s="0" t="s"/>
       <x:c r="F34" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s"/>
       <x:c r="J34" s="0" t="s"/>
@@ -1456,13 +1390,13 @@
       <x:c r="D35" s="0" t="s"/>
       <x:c r="E35" s="0" t="s"/>
       <x:c r="F35" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H35" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s"/>
       <x:c r="J35" s="0" t="s"/>
@@ -1474,13 +1408,13 @@
       <x:c r="D36" s="0" t="s"/>
       <x:c r="E36" s="0" t="s"/>
       <x:c r="F36" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
@@ -1492,31 +1426,37 @@
       <x:c r="D37" s="0" t="s"/>
       <x:c r="E37" s="0" t="s"/>
       <x:c r="F37" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s"/>
       <x:c r="J37" s="0" t="s"/>
     </x:row>
     <x:row r="38" spans="1:10">
-      <x:c r="A38" s="0" t="s"/>
-      <x:c r="B38" s="0" t="s"/>
-      <x:c r="C38" s="0" t="s"/>
+      <x:c r="A38" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
       <x:c r="D38" s="0" t="s"/>
       <x:c r="E38" s="0" t="s"/>
       <x:c r="F38" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H38" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s"/>
       <x:c r="J38" s="0" t="s"/>
@@ -1528,13 +1468,13 @@
       <x:c r="D39" s="0" t="s"/>
       <x:c r="E39" s="0" t="s"/>
       <x:c r="F39" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H39" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s"/>
       <x:c r="J39" s="0" t="s"/>
@@ -1546,37 +1486,31 @@
       <x:c r="D40" s="0" t="s"/>
       <x:c r="E40" s="0" t="s"/>
       <x:c r="F40" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H40" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s"/>
       <x:c r="J40" s="0" t="s"/>
     </x:row>
     <x:row r="41" spans="1:10">
-      <x:c r="A41" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C41" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
+      <x:c r="A41" s="0" t="s"/>
+      <x:c r="B41" s="0" t="s"/>
+      <x:c r="C41" s="0" t="s"/>
       <x:c r="D41" s="0" t="s"/>
       <x:c r="E41" s="0" t="s"/>
       <x:c r="F41" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s"/>
       <x:c r="J41" s="0" t="s"/>
@@ -1588,13 +1522,13 @@
       <x:c r="D42" s="0" t="s"/>
       <x:c r="E42" s="0" t="s"/>
       <x:c r="F42" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s"/>
       <x:c r="J42" s="0" t="s"/>
@@ -1606,13 +1540,13 @@
       <x:c r="D43" s="0" t="s"/>
       <x:c r="E43" s="0" t="s"/>
       <x:c r="F43" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H43" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s"/>
       <x:c r="J43" s="0" t="s"/>
@@ -1624,13 +1558,13 @@
       <x:c r="D44" s="0" t="s"/>
       <x:c r="E44" s="0" t="s"/>
       <x:c r="F44" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H44" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s"/>
       <x:c r="J44" s="0" t="s"/>
@@ -1642,13 +1576,13 @@
       <x:c r="D45" s="0" t="s"/>
       <x:c r="E45" s="0" t="s"/>
       <x:c r="F45" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H45" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s"/>
       <x:c r="J45" s="0" t="s"/>
@@ -1660,13 +1594,13 @@
       <x:c r="D46" s="0" t="s"/>
       <x:c r="E46" s="0" t="s"/>
       <x:c r="F46" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s"/>
       <x:c r="J46" s="0" t="s"/>
@@ -1678,13 +1612,13 @@
       <x:c r="D47" s="0" t="s"/>
       <x:c r="E47" s="0" t="s"/>
       <x:c r="F47" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H47" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s"/>
       <x:c r="J47" s="0" t="s"/>
@@ -1696,31 +1630,37 @@
       <x:c r="D48" s="0" t="s"/>
       <x:c r="E48" s="0" t="s"/>
       <x:c r="F48" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H48" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s"/>
       <x:c r="J48" s="0" t="s"/>
     </x:row>
     <x:row r="49" spans="1:10">
-      <x:c r="A49" s="0" t="s"/>
-      <x:c r="B49" s="0" t="s"/>
-      <x:c r="C49" s="0" t="s"/>
+      <x:c r="A49" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
       <x:c r="D49" s="0" t="s"/>
       <x:c r="E49" s="0" t="s"/>
       <x:c r="F49" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s"/>
       <x:c r="J49" s="0" t="s"/>
@@ -1732,37 +1672,31 @@
       <x:c r="D50" s="0" t="s"/>
       <x:c r="E50" s="0" t="s"/>
       <x:c r="F50" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H50" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s"/>
       <x:c r="J50" s="0" t="s"/>
     </x:row>
     <x:row r="51" spans="1:10">
-      <x:c r="A51" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="B51" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C51" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
+      <x:c r="A51" s="0" t="s"/>
+      <x:c r="B51" s="0" t="s"/>
+      <x:c r="C51" s="0" t="s"/>
       <x:c r="D51" s="0" t="s"/>
       <x:c r="E51" s="0" t="s"/>
       <x:c r="F51" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H51" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s"/>
       <x:c r="J51" s="0" t="s"/>
@@ -1774,13 +1708,13 @@
       <x:c r="D52" s="0" t="s"/>
       <x:c r="E52" s="0" t="s"/>
       <x:c r="F52" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H52" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s"/>
       <x:c r="J52" s="0" t="s"/>
@@ -1792,13 +1726,13 @@
       <x:c r="D53" s="0" t="s"/>
       <x:c r="E53" s="0" t="s"/>
       <x:c r="F53" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s"/>
       <x:c r="J53" s="0" t="s"/>
@@ -1810,13 +1744,13 @@
       <x:c r="D54" s="0" t="s"/>
       <x:c r="E54" s="0" t="s"/>
       <x:c r="F54" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H54" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s"/>
       <x:c r="J54" s="0" t="s"/>
@@ -1828,13 +1762,13 @@
       <x:c r="D55" s="0" t="s"/>
       <x:c r="E55" s="0" t="s"/>
       <x:c r="F55" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s"/>
       <x:c r="J55" s="0" t="s"/>
@@ -1846,13 +1780,13 @@
       <x:c r="D56" s="0" t="s"/>
       <x:c r="E56" s="0" t="s"/>
       <x:c r="F56" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s"/>
       <x:c r="J56" s="0" t="s"/>
@@ -1864,256 +1798,16 @@
       <x:c r="D57" s="0" t="s"/>
       <x:c r="E57" s="0" t="s"/>
       <x:c r="F57" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s"/>
       <x:c r="J57" s="0" t="s"/>
-    </x:row>
-    <x:row r="58" spans="1:10">
-      <x:c r="A58" s="0" t="s"/>
-      <x:c r="B58" s="0" t="s"/>
-      <x:c r="C58" s="0" t="s"/>
-      <x:c r="D58" s="0" t="s"/>
-      <x:c r="E58" s="0" t="s"/>
-      <x:c r="F58" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G58" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="H58" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="I58" s="0" t="s"/>
-      <x:c r="J58" s="0" t="s"/>
-    </x:row>
-    <x:row r="59" spans="1:10">
-      <x:c r="A59" s="0" t="s"/>
-      <x:c r="B59" s="0" t="s"/>
-      <x:c r="C59" s="0" t="s"/>
-      <x:c r="D59" s="0" t="s"/>
-      <x:c r="E59" s="0" t="s"/>
-      <x:c r="F59" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G59" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="H59" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="I59" s="0" t="s"/>
-      <x:c r="J59" s="0" t="s"/>
-    </x:row>
-    <x:row r="60" spans="1:10">
-      <x:c r="A60" s="0" t="s"/>
-      <x:c r="B60" s="0" t="s"/>
-      <x:c r="C60" s="0" t="s"/>
-      <x:c r="D60" s="0" t="s"/>
-      <x:c r="E60" s="0" t="s"/>
-      <x:c r="F60" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G60" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="H60" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="I60" s="0" t="s"/>
-      <x:c r="J60" s="0" t="s"/>
-    </x:row>
-    <x:row r="61" spans="1:10">
-      <x:c r="A61" s="0" t="s"/>
-      <x:c r="B61" s="0" t="s"/>
-      <x:c r="C61" s="0" t="s"/>
-      <x:c r="D61" s="0" t="s"/>
-      <x:c r="E61" s="0" t="s"/>
-      <x:c r="F61" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G61" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="H61" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="I61" s="0" t="s"/>
-      <x:c r="J61" s="0" t="s"/>
-    </x:row>
-    <x:row r="62" spans="1:10">
-      <x:c r="A62" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="B62" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C62" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D62" s="0" t="s"/>
-      <x:c r="E62" s="0" t="s"/>
-      <x:c r="F62" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G62" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H62" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I62" s="0" t="s"/>
-      <x:c r="J62" s="0" t="s"/>
-    </x:row>
-    <x:row r="63" spans="1:10">
-      <x:c r="A63" s="0" t="s"/>
-      <x:c r="B63" s="0" t="s"/>
-      <x:c r="C63" s="0" t="s"/>
-      <x:c r="D63" s="0" t="s"/>
-      <x:c r="E63" s="0" t="s"/>
-      <x:c r="F63" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G63" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H63" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I63" s="0" t="s"/>
-      <x:c r="J63" s="0" t="s"/>
-    </x:row>
-    <x:row r="64" spans="1:10">
-      <x:c r="A64" s="0" t="s"/>
-      <x:c r="B64" s="0" t="s"/>
-      <x:c r="C64" s="0" t="s"/>
-      <x:c r="D64" s="0" t="s"/>
-      <x:c r="E64" s="0" t="s"/>
-      <x:c r="F64" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G64" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H64" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I64" s="0" t="s"/>
-      <x:c r="J64" s="0" t="s"/>
-    </x:row>
-    <x:row r="65" spans="1:10">
-      <x:c r="A65" s="0" t="s"/>
-      <x:c r="B65" s="0" t="s"/>
-      <x:c r="C65" s="0" t="s"/>
-      <x:c r="D65" s="0" t="s"/>
-      <x:c r="E65" s="0" t="s"/>
-      <x:c r="F65" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G65" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H65" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I65" s="0" t="s"/>
-      <x:c r="J65" s="0" t="s"/>
-    </x:row>
-    <x:row r="66" spans="1:10">
-      <x:c r="A66" s="0" t="s"/>
-      <x:c r="B66" s="0" t="s"/>
-      <x:c r="C66" s="0" t="s"/>
-      <x:c r="D66" s="0" t="s"/>
-      <x:c r="E66" s="0" t="s"/>
-      <x:c r="F66" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G66" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H66" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="I66" s="0" t="s"/>
-      <x:c r="J66" s="0" t="s"/>
-    </x:row>
-    <x:row r="67" spans="1:10">
-      <x:c r="A67" s="0" t="s"/>
-      <x:c r="B67" s="0" t="s"/>
-      <x:c r="C67" s="0" t="s"/>
-      <x:c r="D67" s="0" t="s"/>
-      <x:c r="E67" s="0" t="s"/>
-      <x:c r="F67" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G67" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="H67" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="I67" s="0" t="s"/>
-      <x:c r="J67" s="0" t="s"/>
-    </x:row>
-    <x:row r="68" spans="1:10">
-      <x:c r="A68" s="0" t="s"/>
-      <x:c r="B68" s="0" t="s"/>
-      <x:c r="C68" s="0" t="s"/>
-      <x:c r="D68" s="0" t="s"/>
-      <x:c r="E68" s="0" t="s"/>
-      <x:c r="F68" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G68" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="H68" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="I68" s="0" t="s"/>
-      <x:c r="J68" s="0" t="s"/>
-    </x:row>
-    <x:row r="69" spans="1:10">
-      <x:c r="A69" s="0" t="s"/>
-      <x:c r="B69" s="0" t="s"/>
-      <x:c r="C69" s="0" t="s"/>
-      <x:c r="D69" s="0" t="s"/>
-      <x:c r="E69" s="0" t="s"/>
-      <x:c r="F69" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G69" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="H69" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="I69" s="0" t="s"/>
-      <x:c r="J69" s="0" t="s"/>
-    </x:row>
-    <x:row r="70" spans="1:10">
-      <x:c r="A70" s="0" t="s"/>
-      <x:c r="B70" s="0" t="s"/>
-      <x:c r="C70" s="0" t="s"/>
-      <x:c r="D70" s="0" t="s"/>
-      <x:c r="E70" s="0" t="s"/>
-      <x:c r="F70" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G70" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="H70" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="I70" s="0" t="s"/>
-      <x:c r="J70" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ty.xlsx
+++ b/ty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -49,88 +49,163 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_1.TestCase_1</x:t>
+    <x:t>TC_MC_CreatemarketingData_01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Create Marketing data_02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>url should be launched</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter UserName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Name should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Password should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click SignIn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sign in should be clicked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Marketing location</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to Marketing locations page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Create</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to new marketing location page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Location Na,e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Location name should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select marketing are</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should get drop down list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter location type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Location type should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter the URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter image URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image URL should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on Save</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details should be saved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TC_MC_EditRecommendScennario_03</x:t>
   </x:si>
   <x:si>
     <x:t>Select an already created scenarion and edit it with new values</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Url</x:t>
-  </x:si>
-  <x:si>
     <x:t>Url should be launched</x:t>
   </x:si>
   <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Enter UserName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Name should be entered</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Enter Password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Password should be entered</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click SignIn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sign in should be clicked</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click On Edit</x:t>
   </x:si>
   <x:si>
     <x:t>User should see the data to be verified</x:t>
   </x:si>
   <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
     <x:t>Select Model type</x:t>
   </x:si>
   <x:si>
     <x:t>user should see the list of Models</x:t>
   </x:si>
   <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
     <x:t>Select communication medium</x:t>
   </x:si>
   <x:si>
     <x:t>Use should see the list of communication medium</x:t>
   </x:si>
   <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
     <x:t>Select user Type</x:t>
   </x:si>
   <x:si>
     <x:t>User should see the list of user type</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TC_MC_CreateNewContact_01</x:t>
   </x:si>
   <x:si>
     <x:t>Select contact module and create a new contact</x:t>
@@ -160,10 +235,10 @@
     <x:t>A new contact should be created</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
+    <x:t>TestScenario_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TC_MC_JulyMarketingCalender_05</x:t>
   </x:si>
   <x:si>
     <x:t>Click and see the first event of of July Month canlender</x:t>
@@ -190,28 +265,22 @@
     <x:t>Calender events of Months should be selected</x:t>
   </x:si>
   <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on July Month</x:t>
   </x:si>
   <x:si>
     <x:t>List of july month events should be displayed</x:t>
   </x:si>
   <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on monthly coffee part</x:t>
   </x:si>
   <x:si>
     <x:t>User should see the details displayed</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
+    <x:t>TestScenario_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TC_MC_ChangeStatus_Content_06</x:t>
   </x:si>
   <x:si>
     <x:t>Change the status of the content by selecting conent</x:t>
@@ -247,10 +316,10 @@
     <x:t>Status of the content should change</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5.TestCase_1</x:t>
+    <x:t>TestScenario_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TC_MC_StartCampaing-07</x:t>
   </x:si>
   <x:si>
     <x:t>Start the campaign and it should show error message</x:t>
@@ -286,19 +355,16 @@
     <x:t>Error messge should be verified</x:t>
   </x:si>
   <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
     <x:t>click on close</x:t>
   </x:si>
   <x:si>
     <x:t>Pop up should be closed</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6.TestCase_1</x:t>
+    <x:t>TestScenario_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TC_MC_ViewExecutionLog-08</x:t>
   </x:si>
   <x:si>
     <x:t>View Execution Log in Monitor Campaign management</x:t>
@@ -409,8 +475,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J57" totalsRowShown="0">
-  <x:autoFilter ref="A1:J57"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J70" totalsRowShown="0">
+  <x:autoFilter ref="A1:J70"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -715,14 +781,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J57"/>
+  <x:dimension ref="A1:J70"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="36.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="58.410625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
@@ -916,25 +982,19 @@
       <x:c r="J9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -946,13 +1006,13 @@
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -964,13 +1024,13 @@
       <x:c r="D12" s="0" t="s"/>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -982,13 +1042,13 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -1000,31 +1060,37 @@
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
     </x:row>
     <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
+      <x:c r="A15" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -1036,13 +1102,13 @@
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1054,37 +1120,31 @@
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1096,13 +1156,13 @@
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1114,13 +1174,13 @@
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="0" t="s"/>
       <x:c r="F20" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
@@ -1132,13 +1192,13 @@
       <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
@@ -1150,31 +1210,37 @@
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s"/>
-      <x:c r="B23" s="0" t="s"/>
-      <x:c r="C23" s="0" t="s"/>
+      <x:c r="A23" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="D23" s="0" t="s"/>
       <x:c r="E23" s="0" t="s"/>
       <x:c r="F23" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
@@ -1186,13 +1252,13 @@
       <x:c r="D24" s="0" t="s"/>
       <x:c r="E24" s="0" t="s"/>
       <x:c r="F24" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
@@ -1204,13 +1270,13 @@
       <x:c r="D25" s="0" t="s"/>
       <x:c r="E25" s="0" t="s"/>
       <x:c r="F25" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
@@ -1222,13 +1288,13 @@
       <x:c r="D26" s="0" t="s"/>
       <x:c r="E26" s="0" t="s"/>
       <x:c r="F26" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
@@ -1240,37 +1306,31 @@
       <x:c r="D27" s="0" t="s"/>
       <x:c r="E27" s="0" t="s"/>
       <x:c r="F27" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s"/>
       <x:c r="J27" s="0" t="s"/>
     </x:row>
     <x:row r="28" spans="1:10">
-      <x:c r="A28" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
+      <x:c r="A28" s="0" t="s"/>
+      <x:c r="B28" s="0" t="s"/>
+      <x:c r="C28" s="0" t="s"/>
       <x:c r="D28" s="0" t="s"/>
       <x:c r="E28" s="0" t="s"/>
       <x:c r="F28" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
@@ -1282,13 +1342,13 @@
       <x:c r="D29" s="0" t="s"/>
       <x:c r="E29" s="0" t="s"/>
       <x:c r="F29" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
@@ -1300,31 +1360,37 @@
       <x:c r="D30" s="0" t="s"/>
       <x:c r="E30" s="0" t="s"/>
       <x:c r="F30" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s"/>
       <x:c r="J30" s="0" t="s"/>
     </x:row>
     <x:row r="31" spans="1:10">
-      <x:c r="A31" s="0" t="s"/>
-      <x:c r="B31" s="0" t="s"/>
-      <x:c r="C31" s="0" t="s"/>
+      <x:c r="A31" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
       <x:c r="D31" s="0" t="s"/>
       <x:c r="E31" s="0" t="s"/>
       <x:c r="F31" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s"/>
       <x:c r="J31" s="0" t="s"/>
@@ -1336,13 +1402,13 @@
       <x:c r="D32" s="0" t="s"/>
       <x:c r="E32" s="0" t="s"/>
       <x:c r="F32" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
@@ -1354,13 +1420,13 @@
       <x:c r="D33" s="0" t="s"/>
       <x:c r="E33" s="0" t="s"/>
       <x:c r="F33" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
@@ -1372,13 +1438,13 @@
       <x:c r="D34" s="0" t="s"/>
       <x:c r="E34" s="0" t="s"/>
       <x:c r="F34" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s"/>
       <x:c r="J34" s="0" t="s"/>
@@ -1390,13 +1456,13 @@
       <x:c r="D35" s="0" t="s"/>
       <x:c r="E35" s="0" t="s"/>
       <x:c r="F35" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H35" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s"/>
       <x:c r="J35" s="0" t="s"/>
@@ -1408,13 +1474,13 @@
       <x:c r="D36" s="0" t="s"/>
       <x:c r="E36" s="0" t="s"/>
       <x:c r="F36" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
@@ -1426,37 +1492,31 @@
       <x:c r="D37" s="0" t="s"/>
       <x:c r="E37" s="0" t="s"/>
       <x:c r="F37" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s"/>
       <x:c r="J37" s="0" t="s"/>
     </x:row>
     <x:row r="38" spans="1:10">
-      <x:c r="A38" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B38" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C38" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
+      <x:c r="A38" s="0" t="s"/>
+      <x:c r="B38" s="0" t="s"/>
+      <x:c r="C38" s="0" t="s"/>
       <x:c r="D38" s="0" t="s"/>
       <x:c r="E38" s="0" t="s"/>
       <x:c r="F38" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H38" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s"/>
       <x:c r="J38" s="0" t="s"/>
@@ -1468,13 +1528,13 @@
       <x:c r="D39" s="0" t="s"/>
       <x:c r="E39" s="0" t="s"/>
       <x:c r="F39" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H39" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s"/>
       <x:c r="J39" s="0" t="s"/>
@@ -1486,31 +1546,37 @@
       <x:c r="D40" s="0" t="s"/>
       <x:c r="E40" s="0" t="s"/>
       <x:c r="F40" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H40" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s"/>
       <x:c r="J40" s="0" t="s"/>
     </x:row>
     <x:row r="41" spans="1:10">
-      <x:c r="A41" s="0" t="s"/>
-      <x:c r="B41" s="0" t="s"/>
-      <x:c r="C41" s="0" t="s"/>
+      <x:c r="A41" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
       <x:c r="D41" s="0" t="s"/>
       <x:c r="E41" s="0" t="s"/>
       <x:c r="F41" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s"/>
       <x:c r="J41" s="0" t="s"/>
@@ -1522,13 +1588,13 @@
       <x:c r="D42" s="0" t="s"/>
       <x:c r="E42" s="0" t="s"/>
       <x:c r="F42" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s"/>
       <x:c r="J42" s="0" t="s"/>
@@ -1540,13 +1606,13 @@
       <x:c r="D43" s="0" t="s"/>
       <x:c r="E43" s="0" t="s"/>
       <x:c r="F43" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H43" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s"/>
       <x:c r="J43" s="0" t="s"/>
@@ -1558,13 +1624,13 @@
       <x:c r="D44" s="0" t="s"/>
       <x:c r="E44" s="0" t="s"/>
       <x:c r="F44" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H44" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s"/>
       <x:c r="J44" s="0" t="s"/>
@@ -1576,13 +1642,13 @@
       <x:c r="D45" s="0" t="s"/>
       <x:c r="E45" s="0" t="s"/>
       <x:c r="F45" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H45" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s"/>
       <x:c r="J45" s="0" t="s"/>
@@ -1594,13 +1660,13 @@
       <x:c r="D46" s="0" t="s"/>
       <x:c r="E46" s="0" t="s"/>
       <x:c r="F46" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s"/>
       <x:c r="J46" s="0" t="s"/>
@@ -1612,13 +1678,13 @@
       <x:c r="D47" s="0" t="s"/>
       <x:c r="E47" s="0" t="s"/>
       <x:c r="F47" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H47" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s"/>
       <x:c r="J47" s="0" t="s"/>
@@ -1630,37 +1696,31 @@
       <x:c r="D48" s="0" t="s"/>
       <x:c r="E48" s="0" t="s"/>
       <x:c r="F48" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H48" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s"/>
       <x:c r="J48" s="0" t="s"/>
     </x:row>
     <x:row r="49" spans="1:10">
-      <x:c r="A49" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C49" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
+      <x:c r="A49" s="0" t="s"/>
+      <x:c r="B49" s="0" t="s"/>
+      <x:c r="C49" s="0" t="s"/>
       <x:c r="D49" s="0" t="s"/>
       <x:c r="E49" s="0" t="s"/>
       <x:c r="F49" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s"/>
       <x:c r="J49" s="0" t="s"/>
@@ -1672,31 +1732,37 @@
       <x:c r="D50" s="0" t="s"/>
       <x:c r="E50" s="0" t="s"/>
       <x:c r="F50" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H50" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s"/>
       <x:c r="J50" s="0" t="s"/>
     </x:row>
     <x:row r="51" spans="1:10">
-      <x:c r="A51" s="0" t="s"/>
-      <x:c r="B51" s="0" t="s"/>
-      <x:c r="C51" s="0" t="s"/>
+      <x:c r="A51" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
       <x:c r="D51" s="0" t="s"/>
       <x:c r="E51" s="0" t="s"/>
       <x:c r="F51" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s"/>
       <x:c r="J51" s="0" t="s"/>
@@ -1708,13 +1774,13 @@
       <x:c r="D52" s="0" t="s"/>
       <x:c r="E52" s="0" t="s"/>
       <x:c r="F52" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H52" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s"/>
       <x:c r="J52" s="0" t="s"/>
@@ -1726,13 +1792,13 @@
       <x:c r="D53" s="0" t="s"/>
       <x:c r="E53" s="0" t="s"/>
       <x:c r="F53" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s"/>
       <x:c r="J53" s="0" t="s"/>
@@ -1744,13 +1810,13 @@
       <x:c r="D54" s="0" t="s"/>
       <x:c r="E54" s="0" t="s"/>
       <x:c r="F54" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H54" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s"/>
       <x:c r="J54" s="0" t="s"/>
@@ -1762,13 +1828,13 @@
       <x:c r="D55" s="0" t="s"/>
       <x:c r="E55" s="0" t="s"/>
       <x:c r="F55" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s"/>
       <x:c r="J55" s="0" t="s"/>
@@ -1780,13 +1846,13 @@
       <x:c r="D56" s="0" t="s"/>
       <x:c r="E56" s="0" t="s"/>
       <x:c r="F56" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s"/>
       <x:c r="J56" s="0" t="s"/>
@@ -1798,16 +1864,256 @@
       <x:c r="D57" s="0" t="s"/>
       <x:c r="E57" s="0" t="s"/>
       <x:c r="F57" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s"/>
       <x:c r="J57" s="0" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:10">
+      <x:c r="A58" s="0" t="s"/>
+      <x:c r="B58" s="0" t="s"/>
+      <x:c r="C58" s="0" t="s"/>
+      <x:c r="D58" s="0" t="s"/>
+      <x:c r="E58" s="0" t="s"/>
+      <x:c r="F58" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s"/>
+      <x:c r="J58" s="0" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:10">
+      <x:c r="A59" s="0" t="s"/>
+      <x:c r="B59" s="0" t="s"/>
+      <x:c r="C59" s="0" t="s"/>
+      <x:c r="D59" s="0" t="s"/>
+      <x:c r="E59" s="0" t="s"/>
+      <x:c r="F59" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s"/>
+      <x:c r="J59" s="0" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:10">
+      <x:c r="A60" s="0" t="s"/>
+      <x:c r="B60" s="0" t="s"/>
+      <x:c r="C60" s="0" t="s"/>
+      <x:c r="D60" s="0" t="s"/>
+      <x:c r="E60" s="0" t="s"/>
+      <x:c r="F60" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s"/>
+      <x:c r="J60" s="0" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:10">
+      <x:c r="A61" s="0" t="s"/>
+      <x:c r="B61" s="0" t="s"/>
+      <x:c r="C61" s="0" t="s"/>
+      <x:c r="D61" s="0" t="s"/>
+      <x:c r="E61" s="0" t="s"/>
+      <x:c r="F61" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s"/>
+      <x:c r="J61" s="0" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:10">
+      <x:c r="A62" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s"/>
+      <x:c r="E62" s="0" t="s"/>
+      <x:c r="F62" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s"/>
+      <x:c r="J62" s="0" t="s"/>
+    </x:row>
+    <x:row r="63" spans="1:10">
+      <x:c r="A63" s="0" t="s"/>
+      <x:c r="B63" s="0" t="s"/>
+      <x:c r="C63" s="0" t="s"/>
+      <x:c r="D63" s="0" t="s"/>
+      <x:c r="E63" s="0" t="s"/>
+      <x:c r="F63" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s"/>
+      <x:c r="J63" s="0" t="s"/>
+    </x:row>
+    <x:row r="64" spans="1:10">
+      <x:c r="A64" s="0" t="s"/>
+      <x:c r="B64" s="0" t="s"/>
+      <x:c r="C64" s="0" t="s"/>
+      <x:c r="D64" s="0" t="s"/>
+      <x:c r="E64" s="0" t="s"/>
+      <x:c r="F64" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s"/>
+      <x:c r="J64" s="0" t="s"/>
+    </x:row>
+    <x:row r="65" spans="1:10">
+      <x:c r="A65" s="0" t="s"/>
+      <x:c r="B65" s="0" t="s"/>
+      <x:c r="C65" s="0" t="s"/>
+      <x:c r="D65" s="0" t="s"/>
+      <x:c r="E65" s="0" t="s"/>
+      <x:c r="F65" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s"/>
+      <x:c r="J65" s="0" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:10">
+      <x:c r="A66" s="0" t="s"/>
+      <x:c r="B66" s="0" t="s"/>
+      <x:c r="C66" s="0" t="s"/>
+      <x:c r="D66" s="0" t="s"/>
+      <x:c r="E66" s="0" t="s"/>
+      <x:c r="F66" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s"/>
+      <x:c r="J66" s="0" t="s"/>
+    </x:row>
+    <x:row r="67" spans="1:10">
+      <x:c r="A67" s="0" t="s"/>
+      <x:c r="B67" s="0" t="s"/>
+      <x:c r="C67" s="0" t="s"/>
+      <x:c r="D67" s="0" t="s"/>
+      <x:c r="E67" s="0" t="s"/>
+      <x:c r="F67" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s"/>
+      <x:c r="J67" s="0" t="s"/>
+    </x:row>
+    <x:row r="68" spans="1:10">
+      <x:c r="A68" s="0" t="s"/>
+      <x:c r="B68" s="0" t="s"/>
+      <x:c r="C68" s="0" t="s"/>
+      <x:c r="D68" s="0" t="s"/>
+      <x:c r="E68" s="0" t="s"/>
+      <x:c r="F68" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s"/>
+      <x:c r="J68" s="0" t="s"/>
+    </x:row>
+    <x:row r="69" spans="1:10">
+      <x:c r="A69" s="0" t="s"/>
+      <x:c r="B69" s="0" t="s"/>
+      <x:c r="C69" s="0" t="s"/>
+      <x:c r="D69" s="0" t="s"/>
+      <x:c r="E69" s="0" t="s"/>
+      <x:c r="F69" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="s"/>
+      <x:c r="J69" s="0" t="s"/>
+    </x:row>
+    <x:row r="70" spans="1:10">
+      <x:c r="A70" s="0" t="s"/>
+      <x:c r="B70" s="0" t="s"/>
+      <x:c r="C70" s="0" t="s"/>
+      <x:c r="D70" s="0" t="s"/>
+      <x:c r="E70" s="0" t="s"/>
+      <x:c r="F70" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s"/>
+      <x:c r="J70" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ty.xlsx
+++ b/ty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -392,6 +392,24 @@
   </x:si>
   <x:si>
     <x:t>User should be able to see the details of execution log</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_6.TestCase_1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -475,8 +493,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J70" totalsRowShown="0">
-  <x:autoFilter ref="A1:J70"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J126" totalsRowShown="0">
+  <x:autoFilter ref="A1:J126"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -781,7 +799,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J70"/>
+  <x:dimension ref="A1:J126"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2115,6 +2133,1050 @@
       <x:c r="I70" s="0" t="s"/>
       <x:c r="J70" s="0" t="s"/>
     </x:row>
+    <x:row r="71" spans="1:10">
+      <x:c r="A71" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s"/>
+      <x:c r="E71" s="0" t="s"/>
+      <x:c r="F71" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="s"/>
+      <x:c r="J71" s="0" t="s"/>
+    </x:row>
+    <x:row r="72" spans="1:10">
+      <x:c r="A72" s="0" t="s"/>
+      <x:c r="B72" s="0" t="s"/>
+      <x:c r="C72" s="0" t="s"/>
+      <x:c r="D72" s="0" t="s"/>
+      <x:c r="E72" s="0" t="s"/>
+      <x:c r="F72" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H72" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I72" s="0" t="s"/>
+      <x:c r="J72" s="0" t="s"/>
+    </x:row>
+    <x:row r="73" spans="1:10">
+      <x:c r="A73" s="0" t="s"/>
+      <x:c r="B73" s="0" t="s"/>
+      <x:c r="C73" s="0" t="s"/>
+      <x:c r="D73" s="0" t="s"/>
+      <x:c r="E73" s="0" t="s"/>
+      <x:c r="F73" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="s"/>
+      <x:c r="J73" s="0" t="s"/>
+    </x:row>
+    <x:row r="74" spans="1:10">
+      <x:c r="A74" s="0" t="s"/>
+      <x:c r="B74" s="0" t="s"/>
+      <x:c r="C74" s="0" t="s"/>
+      <x:c r="D74" s="0" t="s"/>
+      <x:c r="E74" s="0" t="s"/>
+      <x:c r="F74" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="s"/>
+      <x:c r="J74" s="0" t="s"/>
+    </x:row>
+    <x:row r="75" spans="1:10">
+      <x:c r="A75" s="0" t="s"/>
+      <x:c r="B75" s="0" t="s"/>
+      <x:c r="C75" s="0" t="s"/>
+      <x:c r="D75" s="0" t="s"/>
+      <x:c r="E75" s="0" t="s"/>
+      <x:c r="F75" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s"/>
+      <x:c r="J75" s="0" t="s"/>
+    </x:row>
+    <x:row r="76" spans="1:10">
+      <x:c r="A76" s="0" t="s"/>
+      <x:c r="B76" s="0" t="s"/>
+      <x:c r="C76" s="0" t="s"/>
+      <x:c r="D76" s="0" t="s"/>
+      <x:c r="E76" s="0" t="s"/>
+      <x:c r="F76" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H76" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I76" s="0" t="s"/>
+      <x:c r="J76" s="0" t="s"/>
+    </x:row>
+    <x:row r="77" spans="1:10">
+      <x:c r="A77" s="0" t="s"/>
+      <x:c r="B77" s="0" t="s"/>
+      <x:c r="C77" s="0" t="s"/>
+      <x:c r="D77" s="0" t="s"/>
+      <x:c r="E77" s="0" t="s"/>
+      <x:c r="F77" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I77" s="0" t="s"/>
+      <x:c r="J77" s="0" t="s"/>
+    </x:row>
+    <x:row r="78" spans="1:10">
+      <x:c r="A78" s="0" t="s"/>
+      <x:c r="B78" s="0" t="s"/>
+      <x:c r="C78" s="0" t="s"/>
+      <x:c r="D78" s="0" t="s"/>
+      <x:c r="E78" s="0" t="s"/>
+      <x:c r="F78" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H78" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I78" s="0" t="s"/>
+      <x:c r="J78" s="0" t="s"/>
+    </x:row>
+    <x:row r="79" spans="1:10">
+      <x:c r="A79" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s"/>
+      <x:c r="E79" s="0" t="s"/>
+      <x:c r="F79" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H79" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I79" s="0" t="s"/>
+      <x:c r="J79" s="0" t="s"/>
+    </x:row>
+    <x:row r="80" spans="1:10">
+      <x:c r="A80" s="0" t="s"/>
+      <x:c r="B80" s="0" t="s"/>
+      <x:c r="C80" s="0" t="s"/>
+      <x:c r="D80" s="0" t="s"/>
+      <x:c r="E80" s="0" t="s"/>
+      <x:c r="F80" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H80" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I80" s="0" t="s"/>
+      <x:c r="J80" s="0" t="s"/>
+    </x:row>
+    <x:row r="81" spans="1:10">
+      <x:c r="A81" s="0" t="s"/>
+      <x:c r="B81" s="0" t="s"/>
+      <x:c r="C81" s="0" t="s"/>
+      <x:c r="D81" s="0" t="s"/>
+      <x:c r="E81" s="0" t="s"/>
+      <x:c r="F81" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G81" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H81" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I81" s="0" t="s"/>
+      <x:c r="J81" s="0" t="s"/>
+    </x:row>
+    <x:row r="82" spans="1:10">
+      <x:c r="A82" s="0" t="s"/>
+      <x:c r="B82" s="0" t="s"/>
+      <x:c r="C82" s="0" t="s"/>
+      <x:c r="D82" s="0" t="s"/>
+      <x:c r="E82" s="0" t="s"/>
+      <x:c r="F82" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G82" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H82" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I82" s="0" t="s"/>
+      <x:c r="J82" s="0" t="s"/>
+    </x:row>
+    <x:row r="83" spans="1:10">
+      <x:c r="A83" s="0" t="s"/>
+      <x:c r="B83" s="0" t="s"/>
+      <x:c r="C83" s="0" t="s"/>
+      <x:c r="D83" s="0" t="s"/>
+      <x:c r="E83" s="0" t="s"/>
+      <x:c r="F83" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G83" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H83" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I83" s="0" t="s"/>
+      <x:c r="J83" s="0" t="s"/>
+    </x:row>
+    <x:row r="84" spans="1:10">
+      <x:c r="A84" s="0" t="s"/>
+      <x:c r="B84" s="0" t="s"/>
+      <x:c r="C84" s="0" t="s"/>
+      <x:c r="D84" s="0" t="s"/>
+      <x:c r="E84" s="0" t="s"/>
+      <x:c r="F84" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G84" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I84" s="0" t="s"/>
+      <x:c r="J84" s="0" t="s"/>
+    </x:row>
+    <x:row r="85" spans="1:10">
+      <x:c r="A85" s="0" t="s"/>
+      <x:c r="B85" s="0" t="s"/>
+      <x:c r="C85" s="0" t="s"/>
+      <x:c r="D85" s="0" t="s"/>
+      <x:c r="E85" s="0" t="s"/>
+      <x:c r="F85" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G85" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H85" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I85" s="0" t="s"/>
+      <x:c r="J85" s="0" t="s"/>
+    </x:row>
+    <x:row r="86" spans="1:10">
+      <x:c r="A86" s="0" t="s"/>
+      <x:c r="B86" s="0" t="s"/>
+      <x:c r="C86" s="0" t="s"/>
+      <x:c r="D86" s="0" t="s"/>
+      <x:c r="E86" s="0" t="s"/>
+      <x:c r="F86" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G86" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H86" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I86" s="0" t="s"/>
+      <x:c r="J86" s="0" t="s"/>
+    </x:row>
+    <x:row r="87" spans="1:10">
+      <x:c r="A87" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s"/>
+      <x:c r="E87" s="0" t="s"/>
+      <x:c r="F87" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G87" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H87" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I87" s="0" t="s"/>
+      <x:c r="J87" s="0" t="s"/>
+    </x:row>
+    <x:row r="88" spans="1:10">
+      <x:c r="A88" s="0" t="s"/>
+      <x:c r="B88" s="0" t="s"/>
+      <x:c r="C88" s="0" t="s"/>
+      <x:c r="D88" s="0" t="s"/>
+      <x:c r="E88" s="0" t="s"/>
+      <x:c r="F88" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G88" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H88" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I88" s="0" t="s"/>
+      <x:c r="J88" s="0" t="s"/>
+    </x:row>
+    <x:row r="89" spans="1:10">
+      <x:c r="A89" s="0" t="s"/>
+      <x:c r="B89" s="0" t="s"/>
+      <x:c r="C89" s="0" t="s"/>
+      <x:c r="D89" s="0" t="s"/>
+      <x:c r="E89" s="0" t="s"/>
+      <x:c r="F89" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G89" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H89" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I89" s="0" t="s"/>
+      <x:c r="J89" s="0" t="s"/>
+    </x:row>
+    <x:row r="90" spans="1:10">
+      <x:c r="A90" s="0" t="s"/>
+      <x:c r="B90" s="0" t="s"/>
+      <x:c r="C90" s="0" t="s"/>
+      <x:c r="D90" s="0" t="s"/>
+      <x:c r="E90" s="0" t="s"/>
+      <x:c r="F90" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G90" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H90" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I90" s="0" t="s"/>
+      <x:c r="J90" s="0" t="s"/>
+    </x:row>
+    <x:row r="91" spans="1:10">
+      <x:c r="A91" s="0" t="s"/>
+      <x:c r="B91" s="0" t="s"/>
+      <x:c r="C91" s="0" t="s"/>
+      <x:c r="D91" s="0" t="s"/>
+      <x:c r="E91" s="0" t="s"/>
+      <x:c r="F91" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G91" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H91" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="I91" s="0" t="s"/>
+      <x:c r="J91" s="0" t="s"/>
+    </x:row>
+    <x:row r="92" spans="1:10">
+      <x:c r="A92" s="0" t="s"/>
+      <x:c r="B92" s="0" t="s"/>
+      <x:c r="C92" s="0" t="s"/>
+      <x:c r="D92" s="0" t="s"/>
+      <x:c r="E92" s="0" t="s"/>
+      <x:c r="F92" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G92" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H92" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="I92" s="0" t="s"/>
+      <x:c r="J92" s="0" t="s"/>
+    </x:row>
+    <x:row r="93" spans="1:10">
+      <x:c r="A93" s="0" t="s"/>
+      <x:c r="B93" s="0" t="s"/>
+      <x:c r="C93" s="0" t="s"/>
+      <x:c r="D93" s="0" t="s"/>
+      <x:c r="E93" s="0" t="s"/>
+      <x:c r="F93" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G93" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H93" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I93" s="0" t="s"/>
+      <x:c r="J93" s="0" t="s"/>
+    </x:row>
+    <x:row r="94" spans="1:10">
+      <x:c r="A94" s="0" t="s"/>
+      <x:c r="B94" s="0" t="s"/>
+      <x:c r="C94" s="0" t="s"/>
+      <x:c r="D94" s="0" t="s"/>
+      <x:c r="E94" s="0" t="s"/>
+      <x:c r="F94" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G94" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H94" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I94" s="0" t="s"/>
+      <x:c r="J94" s="0" t="s"/>
+    </x:row>
+    <x:row r="95" spans="1:10">
+      <x:c r="A95" s="0" t="s"/>
+      <x:c r="B95" s="0" t="s"/>
+      <x:c r="C95" s="0" t="s"/>
+      <x:c r="D95" s="0" t="s"/>
+      <x:c r="E95" s="0" t="s"/>
+      <x:c r="F95" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G95" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H95" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I95" s="0" t="s"/>
+      <x:c r="J95" s="0" t="s"/>
+    </x:row>
+    <x:row r="96" spans="1:10">
+      <x:c r="A96" s="0" t="s"/>
+      <x:c r="B96" s="0" t="s"/>
+      <x:c r="C96" s="0" t="s"/>
+      <x:c r="D96" s="0" t="s"/>
+      <x:c r="E96" s="0" t="s"/>
+      <x:c r="F96" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G96" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="H96" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="I96" s="0" t="s"/>
+      <x:c r="J96" s="0" t="s"/>
+    </x:row>
+    <x:row r="97" spans="1:10">
+      <x:c r="A97" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s"/>
+      <x:c r="E97" s="0" t="s"/>
+      <x:c r="F97" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G97" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H97" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I97" s="0" t="s"/>
+      <x:c r="J97" s="0" t="s"/>
+    </x:row>
+    <x:row r="98" spans="1:10">
+      <x:c r="A98" s="0" t="s"/>
+      <x:c r="B98" s="0" t="s"/>
+      <x:c r="C98" s="0" t="s"/>
+      <x:c r="D98" s="0" t="s"/>
+      <x:c r="E98" s="0" t="s"/>
+      <x:c r="F98" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G98" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H98" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I98" s="0" t="s"/>
+      <x:c r="J98" s="0" t="s"/>
+    </x:row>
+    <x:row r="99" spans="1:10">
+      <x:c r="A99" s="0" t="s"/>
+      <x:c r="B99" s="0" t="s"/>
+      <x:c r="C99" s="0" t="s"/>
+      <x:c r="D99" s="0" t="s"/>
+      <x:c r="E99" s="0" t="s"/>
+      <x:c r="F99" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G99" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H99" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I99" s="0" t="s"/>
+      <x:c r="J99" s="0" t="s"/>
+    </x:row>
+    <x:row r="100" spans="1:10">
+      <x:c r="A100" s="0" t="s"/>
+      <x:c r="B100" s="0" t="s"/>
+      <x:c r="C100" s="0" t="s"/>
+      <x:c r="D100" s="0" t="s"/>
+      <x:c r="E100" s="0" t="s"/>
+      <x:c r="F100" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G100" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H100" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I100" s="0" t="s"/>
+      <x:c r="J100" s="0" t="s"/>
+    </x:row>
+    <x:row r="101" spans="1:10">
+      <x:c r="A101" s="0" t="s"/>
+      <x:c r="B101" s="0" t="s"/>
+      <x:c r="C101" s="0" t="s"/>
+      <x:c r="D101" s="0" t="s"/>
+      <x:c r="E101" s="0" t="s"/>
+      <x:c r="F101" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G101" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H101" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="I101" s="0" t="s"/>
+      <x:c r="J101" s="0" t="s"/>
+    </x:row>
+    <x:row r="102" spans="1:10">
+      <x:c r="A102" s="0" t="s"/>
+      <x:c r="B102" s="0" t="s"/>
+      <x:c r="C102" s="0" t="s"/>
+      <x:c r="D102" s="0" t="s"/>
+      <x:c r="E102" s="0" t="s"/>
+      <x:c r="F102" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G102" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H102" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="I102" s="0" t="s"/>
+      <x:c r="J102" s="0" t="s"/>
+    </x:row>
+    <x:row r="103" spans="1:10">
+      <x:c r="A103" s="0" t="s"/>
+      <x:c r="B103" s="0" t="s"/>
+      <x:c r="C103" s="0" t="s"/>
+      <x:c r="D103" s="0" t="s"/>
+      <x:c r="E103" s="0" t="s"/>
+      <x:c r="F103" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G103" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H103" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="I103" s="0" t="s"/>
+      <x:c r="J103" s="0" t="s"/>
+    </x:row>
+    <x:row r="104" spans="1:10">
+      <x:c r="A104" s="0" t="s"/>
+      <x:c r="B104" s="0" t="s"/>
+      <x:c r="C104" s="0" t="s"/>
+      <x:c r="D104" s="0" t="s"/>
+      <x:c r="E104" s="0" t="s"/>
+      <x:c r="F104" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G104" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H104" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I104" s="0" t="s"/>
+      <x:c r="J104" s="0" t="s"/>
+    </x:row>
+    <x:row r="105" spans="1:10">
+      <x:c r="A105" s="0" t="s"/>
+      <x:c r="B105" s="0" t="s"/>
+      <x:c r="C105" s="0" t="s"/>
+      <x:c r="D105" s="0" t="s"/>
+      <x:c r="E105" s="0" t="s"/>
+      <x:c r="F105" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G105" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H105" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I105" s="0" t="s"/>
+      <x:c r="J105" s="0" t="s"/>
+    </x:row>
+    <x:row r="106" spans="1:10">
+      <x:c r="A106" s="0" t="s"/>
+      <x:c r="B106" s="0" t="s"/>
+      <x:c r="C106" s="0" t="s"/>
+      <x:c r="D106" s="0" t="s"/>
+      <x:c r="E106" s="0" t="s"/>
+      <x:c r="F106" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G106" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H106" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="I106" s="0" t="s"/>
+      <x:c r="J106" s="0" t="s"/>
+    </x:row>
+    <x:row r="107" spans="1:10">
+      <x:c r="A107" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="s"/>
+      <x:c r="E107" s="0" t="s"/>
+      <x:c r="F107" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G107" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H107" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I107" s="0" t="s"/>
+      <x:c r="J107" s="0" t="s"/>
+    </x:row>
+    <x:row r="108" spans="1:10">
+      <x:c r="A108" s="0" t="s"/>
+      <x:c r="B108" s="0" t="s"/>
+      <x:c r="C108" s="0" t="s"/>
+      <x:c r="D108" s="0" t="s"/>
+      <x:c r="E108" s="0" t="s"/>
+      <x:c r="F108" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G108" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H108" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I108" s="0" t="s"/>
+      <x:c r="J108" s="0" t="s"/>
+    </x:row>
+    <x:row r="109" spans="1:10">
+      <x:c r="A109" s="0" t="s"/>
+      <x:c r="B109" s="0" t="s"/>
+      <x:c r="C109" s="0" t="s"/>
+      <x:c r="D109" s="0" t="s"/>
+      <x:c r="E109" s="0" t="s"/>
+      <x:c r="F109" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G109" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H109" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I109" s="0" t="s"/>
+      <x:c r="J109" s="0" t="s"/>
+    </x:row>
+    <x:row r="110" spans="1:10">
+      <x:c r="A110" s="0" t="s"/>
+      <x:c r="B110" s="0" t="s"/>
+      <x:c r="C110" s="0" t="s"/>
+      <x:c r="D110" s="0" t="s"/>
+      <x:c r="E110" s="0" t="s"/>
+      <x:c r="F110" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G110" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H110" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I110" s="0" t="s"/>
+      <x:c r="J110" s="0" t="s"/>
+    </x:row>
+    <x:row r="111" spans="1:10">
+      <x:c r="A111" s="0" t="s"/>
+      <x:c r="B111" s="0" t="s"/>
+      <x:c r="C111" s="0" t="s"/>
+      <x:c r="D111" s="0" t="s"/>
+      <x:c r="E111" s="0" t="s"/>
+      <x:c r="F111" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G111" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H111" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="I111" s="0" t="s"/>
+      <x:c r="J111" s="0" t="s"/>
+    </x:row>
+    <x:row r="112" spans="1:10">
+      <x:c r="A112" s="0" t="s"/>
+      <x:c r="B112" s="0" t="s"/>
+      <x:c r="C112" s="0" t="s"/>
+      <x:c r="D112" s="0" t="s"/>
+      <x:c r="E112" s="0" t="s"/>
+      <x:c r="F112" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G112" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H112" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I112" s="0" t="s"/>
+      <x:c r="J112" s="0" t="s"/>
+    </x:row>
+    <x:row r="113" spans="1:10">
+      <x:c r="A113" s="0" t="s"/>
+      <x:c r="B113" s="0" t="s"/>
+      <x:c r="C113" s="0" t="s"/>
+      <x:c r="D113" s="0" t="s"/>
+      <x:c r="E113" s="0" t="s"/>
+      <x:c r="F113" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G113" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H113" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I113" s="0" t="s"/>
+      <x:c r="J113" s="0" t="s"/>
+    </x:row>
+    <x:row r="114" spans="1:10">
+      <x:c r="A114" s="0" t="s"/>
+      <x:c r="B114" s="0" t="s"/>
+      <x:c r="C114" s="0" t="s"/>
+      <x:c r="D114" s="0" t="s"/>
+      <x:c r="E114" s="0" t="s"/>
+      <x:c r="F114" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G114" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="H114" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I114" s="0" t="s"/>
+      <x:c r="J114" s="0" t="s"/>
+    </x:row>
+    <x:row r="115" spans="1:10">
+      <x:c r="A115" s="0" t="s"/>
+      <x:c r="B115" s="0" t="s"/>
+      <x:c r="C115" s="0" t="s"/>
+      <x:c r="D115" s="0" t="s"/>
+      <x:c r="E115" s="0" t="s"/>
+      <x:c r="F115" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G115" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="H115" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="I115" s="0" t="s"/>
+      <x:c r="J115" s="0" t="s"/>
+    </x:row>
+    <x:row r="116" spans="1:10">
+      <x:c r="A116" s="0" t="s"/>
+      <x:c r="B116" s="0" t="s"/>
+      <x:c r="C116" s="0" t="s"/>
+      <x:c r="D116" s="0" t="s"/>
+      <x:c r="E116" s="0" t="s"/>
+      <x:c r="F116" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G116" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="H116" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="I116" s="0" t="s"/>
+      <x:c r="J116" s="0" t="s"/>
+    </x:row>
+    <x:row r="117" spans="1:10">
+      <x:c r="A117" s="0" t="s"/>
+      <x:c r="B117" s="0" t="s"/>
+      <x:c r="C117" s="0" t="s"/>
+      <x:c r="D117" s="0" t="s"/>
+      <x:c r="E117" s="0" t="s"/>
+      <x:c r="F117" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G117" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="H117" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I117" s="0" t="s"/>
+      <x:c r="J117" s="0" t="s"/>
+    </x:row>
+    <x:row r="118" spans="1:10">
+      <x:c r="A118" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D118" s="0" t="s"/>
+      <x:c r="E118" s="0" t="s"/>
+      <x:c r="F118" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G118" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H118" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I118" s="0" t="s"/>
+      <x:c r="J118" s="0" t="s"/>
+    </x:row>
+    <x:row r="119" spans="1:10">
+      <x:c r="A119" s="0" t="s"/>
+      <x:c r="B119" s="0" t="s"/>
+      <x:c r="C119" s="0" t="s"/>
+      <x:c r="D119" s="0" t="s"/>
+      <x:c r="E119" s="0" t="s"/>
+      <x:c r="F119" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G119" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H119" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I119" s="0" t="s"/>
+      <x:c r="J119" s="0" t="s"/>
+    </x:row>
+    <x:row r="120" spans="1:10">
+      <x:c r="A120" s="0" t="s"/>
+      <x:c r="B120" s="0" t="s"/>
+      <x:c r="C120" s="0" t="s"/>
+      <x:c r="D120" s="0" t="s"/>
+      <x:c r="E120" s="0" t="s"/>
+      <x:c r="F120" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G120" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H120" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I120" s="0" t="s"/>
+      <x:c r="J120" s="0" t="s"/>
+    </x:row>
+    <x:row r="121" spans="1:10">
+      <x:c r="A121" s="0" t="s"/>
+      <x:c r="B121" s="0" t="s"/>
+      <x:c r="C121" s="0" t="s"/>
+      <x:c r="D121" s="0" t="s"/>
+      <x:c r="E121" s="0" t="s"/>
+      <x:c r="F121" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G121" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H121" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I121" s="0" t="s"/>
+      <x:c r="J121" s="0" t="s"/>
+    </x:row>
+    <x:row r="122" spans="1:10">
+      <x:c r="A122" s="0" t="s"/>
+      <x:c r="B122" s="0" t="s"/>
+      <x:c r="C122" s="0" t="s"/>
+      <x:c r="D122" s="0" t="s"/>
+      <x:c r="E122" s="0" t="s"/>
+      <x:c r="F122" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G122" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H122" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="I122" s="0" t="s"/>
+      <x:c r="J122" s="0" t="s"/>
+    </x:row>
+    <x:row r="123" spans="1:10">
+      <x:c r="A123" s="0" t="s"/>
+      <x:c r="B123" s="0" t="s"/>
+      <x:c r="C123" s="0" t="s"/>
+      <x:c r="D123" s="0" t="s"/>
+      <x:c r="E123" s="0" t="s"/>
+      <x:c r="F123" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G123" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="H123" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="I123" s="0" t="s"/>
+      <x:c r="J123" s="0" t="s"/>
+    </x:row>
+    <x:row r="124" spans="1:10">
+      <x:c r="A124" s="0" t="s"/>
+      <x:c r="B124" s="0" t="s"/>
+      <x:c r="C124" s="0" t="s"/>
+      <x:c r="D124" s="0" t="s"/>
+      <x:c r="E124" s="0" t="s"/>
+      <x:c r="F124" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G124" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H124" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="I124" s="0" t="s"/>
+      <x:c r="J124" s="0" t="s"/>
+    </x:row>
+    <x:row r="125" spans="1:10">
+      <x:c r="A125" s="0" t="s"/>
+      <x:c r="B125" s="0" t="s"/>
+      <x:c r="C125" s="0" t="s"/>
+      <x:c r="D125" s="0" t="s"/>
+      <x:c r="E125" s="0" t="s"/>
+      <x:c r="F125" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G125" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="H125" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I125" s="0" t="s"/>
+      <x:c r="J125" s="0" t="s"/>
+    </x:row>
+    <x:row r="126" spans="1:10">
+      <x:c r="A126" s="0" t="s"/>
+      <x:c r="B126" s="0" t="s"/>
+      <x:c r="C126" s="0" t="s"/>
+      <x:c r="D126" s="0" t="s"/>
+      <x:c r="E126" s="0" t="s"/>
+      <x:c r="F126" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G126" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="H126" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="I126" s="0" t="s"/>
+      <x:c r="J126" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ty.xlsx
+++ b/ty.xlsx
@@ -49,105 +49,330 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select an already created scenarion and edit it with new values</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Url should be launched</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter UserName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Name should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Password should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click SignIn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sign in should be clicked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click On Edit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should see the data to be verified</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select Model type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user should see the list of Models</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select communication medium</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Use should see the list of communication medium</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select user Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should see the list of user type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select contact module and create a new contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Contacts and Profile Module</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to respective module page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ClickOnContacts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to list of contact page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select marketing area</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should see the drop down list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on create</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A new contact should be created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click and see the first event of of July Month canlender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on Campaign and management</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to campaign and management page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Marketing calender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to markeing calender page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on list box to select Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select  Month Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Calender events of Months should be selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on July Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>List of july month events should be displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on monthly coffee part</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should see the details displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Change the status of the content by selecting conent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on content studio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to content page of studio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on All content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to list of content page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select any one of the content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Content should be checked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on change status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drop down should appear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select statuc to be set</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status of the content should change</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Start the campaign and it should show error message</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on campaign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should go the campign page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select any one of the campaign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Campaign details should be shown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on start bbutton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pop up should appear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click yes on popup</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">It should show error message </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Verify error message</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error messge should be verified</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on close</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pop up should be closed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_6.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Execution Log in Monitor Campaign management</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Monitor Campaign Execution</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to campaign execution list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Actions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should options of view and close</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on View Log</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should get a frame of details of campaing execution</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Verify whether execution log text visible</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to see the details of execution log</x:t>
+  </x:si>
+  <x:si>
     <x:t>TC_MC_CreatemarketingData_01</x:t>
   </x:si>
   <x:si>
     <x:t>Create Marketing data_02</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Url</x:t>
-  </x:si>
-  <x:si>
     <x:t>url should be launched</x:t>
   </x:si>
   <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Enter UserName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Name should be entered</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Enter Password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Password should be entered</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click SignIn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sign in should be clicked</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on Marketing location</x:t>
   </x:si>
   <x:si>
     <x:t>User should navigate to Marketing locations page</x:t>
   </x:si>
   <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on Create</x:t>
   </x:si>
   <x:si>
     <x:t>User should navigate to new marketing location page</x:t>
   </x:si>
   <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
     <x:t>Enter Location Na,e</x:t>
   </x:si>
   <x:si>
     <x:t>Location name should be entered</x:t>
   </x:si>
   <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
     <x:t>Select marketing are</x:t>
   </x:si>
   <x:si>
     <x:t>User should get drop down list</x:t>
   </x:si>
   <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
     <x:t>Enter location type</x:t>
   </x:si>
   <x:si>
     <x:t>Location type should be entered</x:t>
   </x:si>
   <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
     <x:t>Enter the URL</x:t>
   </x:si>
   <x:si>
     <x:t>URL should be entered</x:t>
   </x:si>
   <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
     <x:t>Enter image URL</x:t>
   </x:si>
   <x:si>
@@ -166,250 +391,25 @@
     <x:t>13</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
     <x:t>TC_MC_EditRecommendScennario_03</x:t>
   </x:si>
   <x:si>
-    <x:t>Select an already created scenarion and edit it with new values</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Url should be launched</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click On Edit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should see the data to be verified</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select Model type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user should see the list of Models</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select communication medium</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Use should see the list of communication medium</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select user Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should see the list of user type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
     <x:t>TC_MC_CreateNewContact_01</x:t>
   </x:si>
   <x:si>
-    <x:t>Select contact module and create a new contact</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Contacts and Profile Module</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to respective module page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ClickOnContacts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to list of contact page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select marketing area</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should see the drop down list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on create</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A new contact should be created</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
     <x:t>TC_MC_JulyMarketingCalender_05</x:t>
   </x:si>
   <x:si>
-    <x:t>Click and see the first event of of July Month canlender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click on Campaign and management</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to campaign and management page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Marketing calender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to markeing calender page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click on list box to select Month</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select  Month Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Calender events of Months should be selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on July Month</x:t>
-  </x:si>
-  <x:si>
-    <x:t>List of july month events should be displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on monthly coffee part</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should see the details displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5</x:t>
-  </x:si>
-  <x:si>
     <x:t>TC_MC_ChangeStatus_Content_06</x:t>
   </x:si>
   <x:si>
-    <x:t>Change the status of the content by selecting conent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on content studio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to content page of studio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on All content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to list of content page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select any one of the content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Content should be checked</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on change status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drop down should appear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select statuc to be set</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Status of the content should change</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6</x:t>
-  </x:si>
-  <x:si>
     <x:t>TC_MC_StartCampaing-07</x:t>
   </x:si>
   <x:si>
-    <x:t>Start the campaign and it should show error message</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should go the campign page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select any one of the campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Campaign details should be shown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click on start bbutton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pop up should appear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click yes on popup</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">It should show error message </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify error message</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error messge should be verified</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click on close</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pop up should be closed</x:t>
-  </x:si>
-  <x:si>
     <x:t>TestScenario_7</x:t>
   </x:si>
   <x:si>
     <x:t>TC_MC_ViewExecutionLog-08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Execution Log in Monitor Campaign management</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Monitor Campaign Execution</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should navigate to campaign execution list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Actions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should options of view and close</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on View Log</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should get a frame of details of campaing execution</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify whether execution log text visible</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to see the details of execution log</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_1.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6.TestCase_1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1000,19 +1000,25 @@
       <x:c r="J9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s"/>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="s"/>
+      <x:c r="A10" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -1024,13 +1030,13 @@
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -1042,13 +1048,13 @@
       <x:c r="D12" s="0" t="s"/>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -1060,13 +1066,13 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -1078,37 +1084,31 @@
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
     </x:row>
     <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -1120,13 +1120,13 @@
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1138,31 +1138,37 @@
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
+      <x:c r="A18" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1174,13 +1180,13 @@
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1192,13 +1198,13 @@
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="0" t="s"/>
       <x:c r="F20" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
@@ -1210,13 +1216,13 @@
       <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
@@ -1228,37 +1234,31 @@
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
       <x:c r="D23" s="0" t="s"/>
       <x:c r="E23" s="0" t="s"/>
       <x:c r="F23" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
@@ -1270,13 +1270,13 @@
       <x:c r="D24" s="0" t="s"/>
       <x:c r="E24" s="0" t="s"/>
       <x:c r="F24" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
@@ -1288,13 +1288,13 @@
       <x:c r="D25" s="0" t="s"/>
       <x:c r="E25" s="0" t="s"/>
       <x:c r="F25" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
@@ -1306,13 +1306,13 @@
       <x:c r="D26" s="0" t="s"/>
       <x:c r="E26" s="0" t="s"/>
       <x:c r="F26" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
@@ -1324,31 +1324,37 @@
       <x:c r="D27" s="0" t="s"/>
       <x:c r="E27" s="0" t="s"/>
       <x:c r="F27" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s"/>
       <x:c r="J27" s="0" t="s"/>
     </x:row>
     <x:row r="28" spans="1:10">
-      <x:c r="A28" s="0" t="s"/>
-      <x:c r="B28" s="0" t="s"/>
-      <x:c r="C28" s="0" t="s"/>
+      <x:c r="A28" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
       <x:c r="D28" s="0" t="s"/>
       <x:c r="E28" s="0" t="s"/>
       <x:c r="F28" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
@@ -1360,13 +1366,13 @@
       <x:c r="D29" s="0" t="s"/>
       <x:c r="E29" s="0" t="s"/>
       <x:c r="F29" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
@@ -1378,37 +1384,31 @@
       <x:c r="D30" s="0" t="s"/>
       <x:c r="E30" s="0" t="s"/>
       <x:c r="F30" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s"/>
       <x:c r="J30" s="0" t="s"/>
     </x:row>
     <x:row r="31" spans="1:10">
-      <x:c r="A31" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C31" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
+      <x:c r="A31" s="0" t="s"/>
+      <x:c r="B31" s="0" t="s"/>
+      <x:c r="C31" s="0" t="s"/>
       <x:c r="D31" s="0" t="s"/>
       <x:c r="E31" s="0" t="s"/>
       <x:c r="F31" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s"/>
       <x:c r="J31" s="0" t="s"/>
@@ -1420,13 +1420,13 @@
       <x:c r="D32" s="0" t="s"/>
       <x:c r="E32" s="0" t="s"/>
       <x:c r="F32" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
@@ -1438,13 +1438,13 @@
       <x:c r="D33" s="0" t="s"/>
       <x:c r="E33" s="0" t="s"/>
       <x:c r="F33" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
@@ -1456,13 +1456,13 @@
       <x:c r="D34" s="0" t="s"/>
       <x:c r="E34" s="0" t="s"/>
       <x:c r="F34" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s"/>
       <x:c r="J34" s="0" t="s"/>
@@ -1474,13 +1474,13 @@
       <x:c r="D35" s="0" t="s"/>
       <x:c r="E35" s="0" t="s"/>
       <x:c r="F35" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H35" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s"/>
       <x:c r="J35" s="0" t="s"/>
@@ -1492,13 +1492,13 @@
       <x:c r="D36" s="0" t="s"/>
       <x:c r="E36" s="0" t="s"/>
       <x:c r="F36" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
@@ -1510,31 +1510,37 @@
       <x:c r="D37" s="0" t="s"/>
       <x:c r="E37" s="0" t="s"/>
       <x:c r="F37" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s"/>
       <x:c r="J37" s="0" t="s"/>
     </x:row>
     <x:row r="38" spans="1:10">
-      <x:c r="A38" s="0" t="s"/>
-      <x:c r="B38" s="0" t="s"/>
-      <x:c r="C38" s="0" t="s"/>
+      <x:c r="A38" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
       <x:c r="D38" s="0" t="s"/>
       <x:c r="E38" s="0" t="s"/>
       <x:c r="F38" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H38" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s"/>
       <x:c r="J38" s="0" t="s"/>
@@ -1546,13 +1552,13 @@
       <x:c r="D39" s="0" t="s"/>
       <x:c r="E39" s="0" t="s"/>
       <x:c r="F39" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H39" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s"/>
       <x:c r="J39" s="0" t="s"/>
@@ -1564,37 +1570,31 @@
       <x:c r="D40" s="0" t="s"/>
       <x:c r="E40" s="0" t="s"/>
       <x:c r="F40" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H40" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s"/>
       <x:c r="J40" s="0" t="s"/>
     </x:row>
     <x:row r="41" spans="1:10">
-      <x:c r="A41" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C41" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
+      <x:c r="A41" s="0" t="s"/>
+      <x:c r="B41" s="0" t="s"/>
+      <x:c r="C41" s="0" t="s"/>
       <x:c r="D41" s="0" t="s"/>
       <x:c r="E41" s="0" t="s"/>
       <x:c r="F41" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s"/>
       <x:c r="J41" s="0" t="s"/>
@@ -1606,13 +1606,13 @@
       <x:c r="D42" s="0" t="s"/>
       <x:c r="E42" s="0" t="s"/>
       <x:c r="F42" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s"/>
       <x:c r="J42" s="0" t="s"/>
@@ -1624,13 +1624,13 @@
       <x:c r="D43" s="0" t="s"/>
       <x:c r="E43" s="0" t="s"/>
       <x:c r="F43" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H43" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s"/>
       <x:c r="J43" s="0" t="s"/>
@@ -1642,13 +1642,13 @@
       <x:c r="D44" s="0" t="s"/>
       <x:c r="E44" s="0" t="s"/>
       <x:c r="F44" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H44" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s"/>
       <x:c r="J44" s="0" t="s"/>
@@ -1660,13 +1660,13 @@
       <x:c r="D45" s="0" t="s"/>
       <x:c r="E45" s="0" t="s"/>
       <x:c r="F45" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H45" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s"/>
       <x:c r="J45" s="0" t="s"/>
@@ -1678,13 +1678,13 @@
       <x:c r="D46" s="0" t="s"/>
       <x:c r="E46" s="0" t="s"/>
       <x:c r="F46" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s"/>
       <x:c r="J46" s="0" t="s"/>
@@ -1696,13 +1696,13 @@
       <x:c r="D47" s="0" t="s"/>
       <x:c r="E47" s="0" t="s"/>
       <x:c r="F47" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H47" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s"/>
       <x:c r="J47" s="0" t="s"/>
@@ -1714,31 +1714,37 @@
       <x:c r="D48" s="0" t="s"/>
       <x:c r="E48" s="0" t="s"/>
       <x:c r="F48" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H48" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s"/>
       <x:c r="J48" s="0" t="s"/>
     </x:row>
     <x:row r="49" spans="1:10">
-      <x:c r="A49" s="0" t="s"/>
-      <x:c r="B49" s="0" t="s"/>
-      <x:c r="C49" s="0" t="s"/>
+      <x:c r="A49" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
       <x:c r="D49" s="0" t="s"/>
       <x:c r="E49" s="0" t="s"/>
       <x:c r="F49" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s"/>
       <x:c r="J49" s="0" t="s"/>
@@ -1750,37 +1756,31 @@
       <x:c r="D50" s="0" t="s"/>
       <x:c r="E50" s="0" t="s"/>
       <x:c r="F50" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H50" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s"/>
       <x:c r="J50" s="0" t="s"/>
     </x:row>
     <x:row r="51" spans="1:10">
-      <x:c r="A51" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="B51" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C51" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
+      <x:c r="A51" s="0" t="s"/>
+      <x:c r="B51" s="0" t="s"/>
+      <x:c r="C51" s="0" t="s"/>
       <x:c r="D51" s="0" t="s"/>
       <x:c r="E51" s="0" t="s"/>
       <x:c r="F51" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H51" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s"/>
       <x:c r="J51" s="0" t="s"/>
@@ -1792,13 +1792,13 @@
       <x:c r="D52" s="0" t="s"/>
       <x:c r="E52" s="0" t="s"/>
       <x:c r="F52" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H52" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s"/>
       <x:c r="J52" s="0" t="s"/>
@@ -1810,13 +1810,13 @@
       <x:c r="D53" s="0" t="s"/>
       <x:c r="E53" s="0" t="s"/>
       <x:c r="F53" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s"/>
       <x:c r="J53" s="0" t="s"/>
@@ -1828,13 +1828,13 @@
       <x:c r="D54" s="0" t="s"/>
       <x:c r="E54" s="0" t="s"/>
       <x:c r="F54" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H54" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s"/>
       <x:c r="J54" s="0" t="s"/>
@@ -1846,13 +1846,13 @@
       <x:c r="D55" s="0" t="s"/>
       <x:c r="E55" s="0" t="s"/>
       <x:c r="F55" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s"/>
       <x:c r="J55" s="0" t="s"/>
@@ -1864,13 +1864,13 @@
       <x:c r="D56" s="0" t="s"/>
       <x:c r="E56" s="0" t="s"/>
       <x:c r="F56" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s"/>
       <x:c r="J56" s="0" t="s"/>
@@ -1882,31 +1882,37 @@
       <x:c r="D57" s="0" t="s"/>
       <x:c r="E57" s="0" t="s"/>
       <x:c r="F57" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s"/>
       <x:c r="J57" s="0" t="s"/>
     </x:row>
     <x:row r="58" spans="1:10">
-      <x:c r="A58" s="0" t="s"/>
-      <x:c r="B58" s="0" t="s"/>
-      <x:c r="C58" s="0" t="s"/>
+      <x:c r="A58" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
       <x:c r="D58" s="0" t="s"/>
       <x:c r="E58" s="0" t="s"/>
       <x:c r="F58" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H58" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s"/>
       <x:c r="J58" s="0" t="s"/>
@@ -1918,13 +1924,13 @@
       <x:c r="D59" s="0" t="s"/>
       <x:c r="E59" s="0" t="s"/>
       <x:c r="F59" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H59" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s"/>
       <x:c r="J59" s="0" t="s"/>
@@ -1936,13 +1942,13 @@
       <x:c r="D60" s="0" t="s"/>
       <x:c r="E60" s="0" t="s"/>
       <x:c r="F60" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H60" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s"/>
       <x:c r="J60" s="0" t="s"/>
@@ -1954,37 +1960,31 @@
       <x:c r="D61" s="0" t="s"/>
       <x:c r="E61" s="0" t="s"/>
       <x:c r="F61" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s"/>
       <x:c r="J61" s="0" t="s"/>
     </x:row>
     <x:row r="62" spans="1:10">
-      <x:c r="A62" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="B62" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C62" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
+      <x:c r="A62" s="0" t="s"/>
+      <x:c r="B62" s="0" t="s"/>
+      <x:c r="C62" s="0" t="s"/>
       <x:c r="D62" s="0" t="s"/>
       <x:c r="E62" s="0" t="s"/>
       <x:c r="F62" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H62" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s"/>
       <x:c r="J62" s="0" t="s"/>
@@ -1996,13 +1996,13 @@
       <x:c r="D63" s="0" t="s"/>
       <x:c r="E63" s="0" t="s"/>
       <x:c r="F63" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H63" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s"/>
       <x:c r="J63" s="0" t="s"/>
@@ -2014,13 +2014,13 @@
       <x:c r="D64" s="0" t="s"/>
       <x:c r="E64" s="0" t="s"/>
       <x:c r="F64" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H64" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s"/>
       <x:c r="J64" s="0" t="s"/>
@@ -2032,13 +2032,13 @@
       <x:c r="D65" s="0" t="s"/>
       <x:c r="E65" s="0" t="s"/>
       <x:c r="F65" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H65" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s"/>
       <x:c r="J65" s="0" t="s"/>
@@ -2050,13 +2050,13 @@
       <x:c r="D66" s="0" t="s"/>
       <x:c r="E66" s="0" t="s"/>
       <x:c r="F66" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H66" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s"/>
       <x:c r="J66" s="0" t="s"/>
@@ -2068,13 +2068,13 @@
       <x:c r="D67" s="0" t="s"/>
       <x:c r="E67" s="0" t="s"/>
       <x:c r="F67" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="s">
         <x:v>118</x:v>
-      </x:c>
-      <x:c r="H67" s="0" t="s">
-        <x:v>119</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s"/>
       <x:c r="J67" s="0" t="s"/>
@@ -2086,13 +2086,13 @@
       <x:c r="D68" s="0" t="s"/>
       <x:c r="E68" s="0" t="s"/>
       <x:c r="F68" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="H68" s="0" t="s">
-        <x:v>121</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s"/>
       <x:c r="J68" s="0" t="s"/>
@@ -2104,7 +2104,7 @@
       <x:c r="D69" s="0" t="s"/>
       <x:c r="E69" s="0" t="s"/>
       <x:c r="F69" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
         <x:v>122</x:v>
@@ -2122,26 +2122,26 @@
       <x:c r="D70" s="0" t="s"/>
       <x:c r="E70" s="0" t="s"/>
       <x:c r="F70" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H70" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s"/>
       <x:c r="J70" s="0" t="s"/>
     </x:row>
     <x:row r="71" spans="1:10">
       <x:c r="A71" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s"/>
       <x:c r="E71" s="0" t="s"/>
@@ -2152,7 +2152,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H71" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s"/>
       <x:c r="J71" s="0" t="s"/>
@@ -2221,10 +2221,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H75" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s"/>
       <x:c r="J75" s="0" t="s"/>
@@ -2239,10 +2239,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s"/>
       <x:c r="J76" s="0" t="s"/>
@@ -2257,10 +2257,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H77" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s"/>
       <x:c r="J77" s="0" t="s"/>
@@ -2275,23 +2275,23 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H78" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s"/>
       <x:c r="J78" s="0" t="s"/>
     </x:row>
     <x:row r="79" spans="1:10">
       <x:c r="A79" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s"/>
       <x:c r="E79" s="0" t="s"/>
@@ -2302,7 +2302,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H79" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s"/>
       <x:c r="J79" s="0" t="s"/>
@@ -2371,10 +2371,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G83" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H83" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s"/>
       <x:c r="J83" s="0" t="s"/>
@@ -2389,10 +2389,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H84" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s"/>
       <x:c r="J84" s="0" t="s"/>
@@ -2407,10 +2407,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H85" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I85" s="0" t="s"/>
       <x:c r="J85" s="0" t="s"/>
@@ -2425,23 +2425,23 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H86" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I86" s="0" t="s"/>
       <x:c r="J86" s="0" t="s"/>
     </x:row>
     <x:row r="87" spans="1:10">
       <x:c r="A87" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s"/>
       <x:c r="E87" s="0" t="s"/>
@@ -2452,7 +2452,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H87" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I87" s="0" t="s"/>
       <x:c r="J87" s="0" t="s"/>
@@ -2521,10 +2521,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H91" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I91" s="0" t="s"/>
       <x:c r="J91" s="0" t="s"/>
@@ -2539,10 +2539,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H92" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I92" s="0" t="s"/>
       <x:c r="J92" s="0" t="s"/>
@@ -2557,10 +2557,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H93" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I93" s="0" t="s"/>
       <x:c r="J93" s="0" t="s"/>
@@ -2575,10 +2575,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G94" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H94" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I94" s="0" t="s"/>
       <x:c r="J94" s="0" t="s"/>
@@ -2590,13 +2590,13 @@
       <x:c r="D95" s="0" t="s"/>
       <x:c r="E95" s="0" t="s"/>
       <x:c r="F95" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I95" s="0" t="s"/>
       <x:c r="J95" s="0" t="s"/>
@@ -2608,26 +2608,26 @@
       <x:c r="D96" s="0" t="s"/>
       <x:c r="E96" s="0" t="s"/>
       <x:c r="F96" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G96" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H96" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I96" s="0" t="s"/>
       <x:c r="J96" s="0" t="s"/>
     </x:row>
     <x:row r="97" spans="1:10">
       <x:c r="A97" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s"/>
       <x:c r="E97" s="0" t="s"/>
@@ -2638,7 +2638,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H97" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I97" s="0" t="s"/>
       <x:c r="J97" s="0" t="s"/>
@@ -2707,10 +2707,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G101" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H101" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I101" s="0" t="s"/>
       <x:c r="J101" s="0" t="s"/>
@@ -2725,10 +2725,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G102" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H102" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I102" s="0" t="s"/>
       <x:c r="J102" s="0" t="s"/>
@@ -2743,10 +2743,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G103" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H103" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I103" s="0" t="s"/>
       <x:c r="J103" s="0" t="s"/>
@@ -2761,10 +2761,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G104" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H104" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I104" s="0" t="s"/>
       <x:c r="J104" s="0" t="s"/>
@@ -2776,13 +2776,13 @@
       <x:c r="D105" s="0" t="s"/>
       <x:c r="E105" s="0" t="s"/>
       <x:c r="F105" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G105" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H105" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I105" s="0" t="s"/>
       <x:c r="J105" s="0" t="s"/>
@@ -2794,26 +2794,26 @@
       <x:c r="D106" s="0" t="s"/>
       <x:c r="E106" s="0" t="s"/>
       <x:c r="F106" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G106" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H106" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I106" s="0" t="s"/>
       <x:c r="J106" s="0" t="s"/>
     </x:row>
     <x:row r="107" spans="1:10">
       <x:c r="A107" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s"/>
       <x:c r="E107" s="0" t="s"/>
@@ -2824,7 +2824,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H107" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I107" s="0" t="s"/>
       <x:c r="J107" s="0" t="s"/>
@@ -2893,10 +2893,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G111" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H111" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I111" s="0" t="s"/>
       <x:c r="J111" s="0" t="s"/>
@@ -2911,10 +2911,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G112" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H112" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I112" s="0" t="s"/>
       <x:c r="J112" s="0" t="s"/>
@@ -2929,10 +2929,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G113" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H113" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I113" s="0" t="s"/>
       <x:c r="J113" s="0" t="s"/>
@@ -2947,10 +2947,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G114" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H114" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I114" s="0" t="s"/>
       <x:c r="J114" s="0" t="s"/>
@@ -2962,13 +2962,13 @@
       <x:c r="D115" s="0" t="s"/>
       <x:c r="E115" s="0" t="s"/>
       <x:c r="F115" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G115" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H115" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I115" s="0" t="s"/>
       <x:c r="J115" s="0" t="s"/>
@@ -2980,13 +2980,13 @@
       <x:c r="D116" s="0" t="s"/>
       <x:c r="E116" s="0" t="s"/>
       <x:c r="F116" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G116" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H116" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I116" s="0" t="s"/>
       <x:c r="J116" s="0" t="s"/>
@@ -2998,26 +2998,26 @@
       <x:c r="D117" s="0" t="s"/>
       <x:c r="E117" s="0" t="s"/>
       <x:c r="F117" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G117" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H117" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I117" s="0" t="s"/>
       <x:c r="J117" s="0" t="s"/>
     </x:row>
     <x:row r="118" spans="1:10">
       <x:c r="A118" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s"/>
       <x:c r="E118" s="0" t="s"/>
@@ -3028,7 +3028,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H118" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I118" s="0" t="s"/>
       <x:c r="J118" s="0" t="s"/>
@@ -3097,10 +3097,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G122" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H122" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I122" s="0" t="s"/>
       <x:c r="J122" s="0" t="s"/>
@@ -3115,10 +3115,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G123" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H123" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I123" s="0" t="s"/>
       <x:c r="J123" s="0" t="s"/>
@@ -3133,10 +3133,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G124" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H124" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I124" s="0" t="s"/>
       <x:c r="J124" s="0" t="s"/>
@@ -3151,10 +3151,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G125" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H125" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I125" s="0" t="s"/>
       <x:c r="J125" s="0" t="s"/>
@@ -3166,13 +3166,13 @@
       <x:c r="D126" s="0" t="s"/>
       <x:c r="E126" s="0" t="s"/>
       <x:c r="F126" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G126" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H126" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I126" s="0" t="s"/>
       <x:c r="J126" s="0" t="s"/>
